--- a/URL Mapping.xlsx
+++ b/URL Mapping.xlsx
@@ -588,9 +588,6 @@
   </si>
   <si>
     <t>/home/customerId={customerid}/checkStatus/{consignmentno}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /home/manageIdr={managerid}/addStaff </t>
   </si>
   <si>
     <t>HOME</t>
@@ -1001,17 +998,27 @@
   <si>
     <t>customerid=1, password= Ramkumar@1</t>
   </si>
+  <si>
+    <t xml:space="preserve"> /home/managerid={managerid}/addStaff </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1091,16 +1098,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1118,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,59 +1139,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,7 +1562,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
@@ -1573,7 +1583,7 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="35"/>
       <c r="G6" t="s">
         <v>18</v>
       </c>
@@ -1591,7 +1601,7 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="35"/>
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1620,7 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="35"/>
       <c r="G8" t="s">
         <v>22</v>
       </c>
@@ -1970,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2039,115 +2049,115 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="25" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" s="24" customFormat="1">
+      <c r="B5" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" s="25" customFormat="1">
-      <c r="B5" s="24" t="s">
+      <c r="H5" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="24" customFormat="1" ht="172.8">
+      <c r="B6" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="25" customFormat="1" ht="172.8">
-      <c r="B6" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="24" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>165</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="25" customFormat="1">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:11" s="24" customFormat="1">
+      <c r="B7" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="24" t="s">
         <v>110</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>193</v>
+      <c r="I7" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="25" customFormat="1"/>
+    <row r="8" spans="1:11" s="24" customFormat="1"/>
     <row r="9" spans="1:11" ht="187.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
@@ -2158,22 +2168,22 @@
       <c r="C9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>194</v>
+      <c r="D9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>110</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="31" t="s">
-        <v>195</v>
+      <c r="I9" s="27"/>
+      <c r="J9" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -2192,23 +2202,23 @@
         <v>175</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>110</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>197</v>
+      <c r="I10" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="216">
       <c r="A11" s="4"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2235,11 +2245,11 @@
     </row>
     <row r="12" spans="1:11" ht="86.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -2248,17 +2258,17 @@
         <v>176</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>200</v>
+      <c r="I12" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>87</v>
@@ -2270,7 +2280,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -2285,11 +2295,11 @@
       <c r="H13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -2308,13 +2318,13 @@
         <v>178</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="31">
         <v>5435</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -2356,26 +2366,26 @@
         <v>93</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>205</v>
+      <c r="E17" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -2390,8 +2400,8 @@
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>179</v>
+      <c r="E18" s="36" t="s">
+        <v>239</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
@@ -2400,11 +2410,11 @@
       <c r="H18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -2419,11 +2429,11 @@
       <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>210</v>
+      <c r="E19" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H19" s="5"/>
@@ -2434,59 +2444,59 @@
     </row>
     <row r="20" spans="1:11" ht="273.60000000000002">
       <c r="A20" s="5"/>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>212</v>
-      </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="31" t="s">
-        <v>213</v>
+      <c r="J20" s="30" t="s">
+        <v>212</v>
       </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="331.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>215</v>
-      </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="31" t="s">
-        <v>226</v>
+      <c r="J21" s="30" t="s">
+        <v>225</v>
       </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -2495,8 +2505,8 @@
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>216</v>
+      <c r="E22" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="6" t="s">
@@ -2524,18 +2534,18 @@
       <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>217</v>
+      <c r="E23" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>110</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>218</v>
+      <c r="J23" s="30" t="s">
+        <v>217</v>
       </c>
       <c r="K23" s="6"/>
     </row>
@@ -2550,8 +2560,8 @@
       <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>219</v>
+      <c r="E24" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="6" t="s">
@@ -2560,32 +2570,32 @@
       <c r="H24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J24" s="31" t="s">
-        <v>220</v>
+      <c r="J24" s="30" t="s">
+        <v>219</v>
       </c>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="409.6">
       <c r="A25" s="5"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="J25" s="30" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="J25" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -2600,8 +2610,8 @@
       <c r="D26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>224</v>
+      <c r="E26" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="6" t="s">
@@ -2613,8 +2623,8 @@
       <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="J26" s="31" t="s">
-        <v>225</v>
+      <c r="J26" s="30" t="s">
+        <v>224</v>
       </c>
       <c r="K26" s="5"/>
     </row>
@@ -2623,12 +2633,12 @@
       <c r="B27" s="5"/>
       <c r="C27" s="21"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="22"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="31"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="57.6">
@@ -2645,15 +2655,15 @@
         <v>11</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="6" t="s">
         <v>115</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="31" t="s">
-        <v>228</v>
+      <c r="I28" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>116</v>
@@ -2672,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="6" t="s">
@@ -2702,8 +2712,8 @@
       <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>232</v>
+      <c r="E30" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="6" t="s">
@@ -2730,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="6" t="s">
@@ -2739,8 +2749,8 @@
       <c r="H31" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="31" t="s">
-        <v>234</v>
+      <c r="J31" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="K31" s="5"/>
     </row>
@@ -2756,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="6" t="s">
@@ -2765,8 +2775,8 @@
       <c r="H32" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="31" t="s">
-        <v>236</v>
+      <c r="J32" s="30" t="s">
+        <v>235</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -2781,8 +2791,8 @@
       <c r="D33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>230</v>
+      <c r="E33" s="33" t="s">
+        <v>229</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="6" t="s">
@@ -2812,8 +2822,8 @@
       <c r="D34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="34" t="s">
-        <v>231</v>
+      <c r="E34" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="6" t="s">
@@ -2858,16 +2868,16 @@
       <c r="D36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>237</v>
+      <c r="E36" s="28" t="s">
+        <v>236</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="6" t="s">
         <v>110</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="35" t="s">
-        <v>239</v>
+      <c r="I36" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>142</v>
@@ -2885,8 +2895,8 @@
       <c r="D37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>238</v>
+      <c r="E37" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5"/>
@@ -2900,7 +2910,7 @@
     <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="29"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
